--- a/实验8：工作量估计与统计分析/实验8 工作量统计分析工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验8 工作量统计分析工作统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作量统计分析记录表" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>工作量统计分析记录表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,27 @@
   </si>
   <si>
     <t>张3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.0.200330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.制作表格模板
+2.初始化分析报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常佳辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗时(h)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,12 +313,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -306,11 +324,33 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -533,27 +573,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:D20" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:D20" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A2:D20"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="姓名" dataDxfId="12"/>
-    <tableColumn id="2" name="完成文档" dataDxfId="11"/>
-    <tableColumn id="3" name="字数" dataDxfId="10"/>
-    <tableColumn id="4" name="总耗时(h)" dataDxfId="9"/>
+    <tableColumn id="1" name="姓名" dataDxfId="11"/>
+    <tableColumn id="2" name="完成文档" dataDxfId="10"/>
+    <tableColumn id="3" name="字数" dataDxfId="9"/>
+    <tableColumn id="4" name="总耗时(h)" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:E21" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A2:E21"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="修改日期" dataDxfId="6"/>
-    <tableColumn id="2" name="版本" dataDxfId="5"/>
-    <tableColumn id="3" name="修改内容" dataDxfId="4"/>
-    <tableColumn id="4" name="修改描述" dataDxfId="3"/>
-    <tableColumn id="5" name="修改人" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F21" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F21"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="修改日期" dataDxfId="5"/>
+    <tableColumn id="2" name="版本" dataDxfId="4"/>
+    <tableColumn id="3" name="修改内容" dataDxfId="3"/>
+    <tableColumn id="4" name="修改描述" dataDxfId="2"/>
+    <tableColumn id="5" name="修改人" dataDxfId="1"/>
+    <tableColumn id="6" name="耗时(h)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -824,7 +865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -837,12 +878,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -859,16 +900,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>800</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
     </row>
@@ -888,10 +929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -903,16 +944,16 @@
     <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,23 +969,100 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>43920</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>43920</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -952,9 +1070,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/实验8：工作量估计与统计分析/实验8 工作量统计分析工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验8 工作量统计分析工作统计.xlsx
@@ -324,10 +324,10 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -586,8 +586,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F21" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:F21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F20" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F20"/>
   <tableColumns count="6">
     <tableColumn id="1" name="修改日期" dataDxfId="5"/>
     <tableColumn id="2" name="版本" dataDxfId="4"/>
@@ -878,12 +878,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -929,10 +929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -945,13 +945,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -994,7 +994,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>43920</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1060,9 +1060,6 @@
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/实验8：工作量估计与统计分析/实验8 工作量统计分析工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验8 工作量统计分析工作统计.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="工作量统计分析记录表" sheetId="1" r:id="rId1"/>
-    <sheet name="工作量统计分析修改记录表" sheetId="2" r:id="rId2"/>
+    <sheet name="工作量统计分析修改记录表" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,68 +19,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-最终用于实验八提交的文档。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-应用于最终版本的工作量统计分析报告的字数。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -144,35 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>工作量统计分析记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作量统计分析4.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总耗时(h)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>修改日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,103 +243,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -573,19 +386,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:D20" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A2:D20"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="姓名" dataDxfId="11"/>
-    <tableColumn id="2" name="完成文档" dataDxfId="10"/>
-    <tableColumn id="3" name="字数" dataDxfId="9"/>
-    <tableColumn id="4" name="总耗时(h)" dataDxfId="8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:F20" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A2:F20"/>
   <tableColumns count="6">
@@ -863,76 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="24.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>800</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -946,7 +680,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -955,22 +689,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -978,16 +712,16 @@
         <v>43920</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -998,16 +732,16 @@
         <v>43920</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
